--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Serpine1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.878682</v>
+        <v>8.783898333333333</v>
       </c>
       <c r="H2">
-        <v>86.63604600000001</v>
+        <v>26.351695</v>
       </c>
       <c r="I2">
-        <v>0.2978181586389064</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="J2">
-        <v>0.2978181586389065</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>234.819320953588</v>
+        <v>33.33658361144612</v>
       </c>
       <c r="R2">
-        <v>2113.373888582292</v>
+        <v>300.029252503015</v>
       </c>
       <c r="S2">
-        <v>0.006227364512776773</v>
+        <v>0.00102825034719515</v>
       </c>
       <c r="T2">
-        <v>0.006227364512776774</v>
+        <v>0.00102825034719515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.878682</v>
+        <v>8.783898333333333</v>
       </c>
       <c r="H3">
-        <v>86.63604600000001</v>
+        <v>26.351695</v>
       </c>
       <c r="I3">
-        <v>0.2978181586389064</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="J3">
-        <v>0.2978181586389065</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>7028.389623399891</v>
+        <v>2137.793542620802</v>
       </c>
       <c r="R3">
-        <v>63255.50661059902</v>
+        <v>19240.14188358722</v>
       </c>
       <c r="S3">
-        <v>0.1863915794704977</v>
+        <v>0.06593917895283791</v>
       </c>
       <c r="T3">
-        <v>0.1863915794704977</v>
+        <v>0.06593917895283791</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.878682</v>
+        <v>8.783898333333333</v>
       </c>
       <c r="H4">
-        <v>86.63604600000001</v>
+        <v>26.351695</v>
       </c>
       <c r="I4">
-        <v>0.2978181586389064</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="J4">
-        <v>0.2978181586389065</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>965.0894348350453</v>
+        <v>261.7722130579483</v>
       </c>
       <c r="R4">
-        <v>8685.804913515409</v>
+        <v>2355.949917521535</v>
       </c>
       <c r="S4">
-        <v>0.02559399147285424</v>
+        <v>0.008074233763727949</v>
       </c>
       <c r="T4">
-        <v>0.02559399147285425</v>
+        <v>0.008074233763727947</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.878682</v>
+        <v>8.783898333333333</v>
       </c>
       <c r="H5">
-        <v>86.63604600000001</v>
+        <v>26.351695</v>
       </c>
       <c r="I5">
-        <v>0.2978181586389064</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="J5">
-        <v>0.2978181586389065</v>
+        <v>0.09847125088802929</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>3001.726398669343</v>
+        <v>759.6033549767455</v>
       </c>
       <c r="R5">
-        <v>27015.53758802409</v>
+        <v>6836.430194790711</v>
       </c>
       <c r="S5">
-        <v>0.07960522318277775</v>
+        <v>0.02342958782426827</v>
       </c>
       <c r="T5">
-        <v>0.07960522318277777</v>
+        <v>0.02342958782426827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>136.24961</v>
       </c>
       <c r="I6">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="J6">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>369.2924871062466</v>
+        <v>172.3644917638856</v>
       </c>
       <c r="R6">
-        <v>3323.632383956219</v>
+        <v>1551.28042587497</v>
       </c>
       <c r="S6">
-        <v>0.009793567751160704</v>
+        <v>0.005316497052189764</v>
       </c>
       <c r="T6">
-        <v>0.009793567751160704</v>
+        <v>0.005316497052189764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.24961</v>
       </c>
       <c r="I7">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="J7">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>11053.31313384595</v>
       </c>
       <c r="R7">
-        <v>99479.81820461355</v>
+        <v>99479.81820461359</v>
       </c>
       <c r="S7">
-        <v>0.2931317988604802</v>
+        <v>0.3409339481215297</v>
       </c>
       <c r="T7">
-        <v>0.2931317988604802</v>
+        <v>0.3409339481215297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>136.24961</v>
       </c>
       <c r="I8">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="J8">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>1517.763854451475</v>
+        <v>1353.475058738437</v>
       </c>
       <c r="R8">
-        <v>13659.87469006328</v>
+        <v>12181.27552864593</v>
       </c>
       <c r="S8">
-        <v>0.04025081380698878</v>
+        <v>0.04174726526535637</v>
       </c>
       <c r="T8">
-        <v>0.04025081380698878</v>
+        <v>0.04174726526535637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>136.24961</v>
       </c>
       <c r="I9">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="J9">
-        <v>0.4683686506822937</v>
+        <v>0.5091387681022471</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>4720.714645095905</v>
+        <v>3927.476424961398</v>
       </c>
       <c r="R9">
-        <v>42486.43180586314</v>
+        <v>35347.28782465259</v>
       </c>
       <c r="S9">
-        <v>0.125192470263664</v>
+        <v>0.1211410576631712</v>
       </c>
       <c r="T9">
-        <v>0.125192470263664</v>
+        <v>0.1211410576631712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.67636333333333</v>
+        <v>25.203909</v>
       </c>
       <c r="H10">
-        <v>47.02909</v>
+        <v>75.611727</v>
       </c>
       <c r="I10">
-        <v>0.161666161291149</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="J10">
-        <v>0.1616661612911491</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>127.4681785323533</v>
+        <v>95.65368220683101</v>
       </c>
       <c r="R10">
-        <v>1147.21360679118</v>
+        <v>860.8831398614791</v>
       </c>
       <c r="S10">
-        <v>0.003380432275662546</v>
+        <v>0.002950390270522441</v>
       </c>
       <c r="T10">
-        <v>0.003380432275662546</v>
+        <v>0.002950390270522441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.67636333333333</v>
+        <v>25.203909</v>
       </c>
       <c r="H11">
-        <v>47.02909</v>
+        <v>75.611727</v>
       </c>
       <c r="I11">
-        <v>0.161666161291149</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="J11">
-        <v>0.1616661612911491</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>3815.256852256849</v>
+        <v>6134.036604742389</v>
       </c>
       <c r="R11">
-        <v>34337.31167031164</v>
+        <v>55206.3294426815</v>
       </c>
       <c r="S11">
-        <v>0.101179898793629</v>
+        <v>0.1892013093497829</v>
       </c>
       <c r="T11">
-        <v>0.101179898793629</v>
+        <v>0.1892013093497829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.67636333333333</v>
+        <v>25.203909</v>
       </c>
       <c r="H12">
-        <v>47.02909</v>
+        <v>75.611727</v>
       </c>
       <c r="I12">
-        <v>0.161666161291149</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="J12">
-        <v>0.1616661612911491</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>523.8844566949244</v>
+        <v>751.111042759239</v>
       </c>
       <c r="R12">
-        <v>4714.960110254319</v>
+        <v>6759.999384833151</v>
       </c>
       <c r="S12">
-        <v>0.01389331789721907</v>
+        <v>0.02316764667613147</v>
       </c>
       <c r="T12">
-        <v>0.01389331789721907</v>
+        <v>0.02316764667613146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.67636333333333</v>
+        <v>25.203909</v>
       </c>
       <c r="H13">
-        <v>47.02909</v>
+        <v>75.611727</v>
       </c>
       <c r="I13">
-        <v>0.161666161291149</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="J13">
-        <v>0.1616661612911491</v>
+        <v>0.2825465815194877</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>1629.442564338594</v>
+        <v>2179.553212982534</v>
       </c>
       <c r="R13">
-        <v>14664.98307904735</v>
+        <v>19615.97891684281</v>
       </c>
       <c r="S13">
-        <v>0.04321251232463841</v>
+        <v>0.06722723522305099</v>
       </c>
       <c r="T13">
-        <v>0.04321251232463842</v>
+        <v>0.06722723522305099</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.995916999999999</v>
+        <v>9.798324333333333</v>
       </c>
       <c r="H14">
-        <v>20.987751</v>
+        <v>29.394973</v>
       </c>
       <c r="I14">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="J14">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>56.88543817157799</v>
+        <v>37.18652538938012</v>
       </c>
       <c r="R14">
-        <v>511.9689435442019</v>
+        <v>334.678728504421</v>
       </c>
       <c r="S14">
-        <v>0.001508591190558203</v>
+        <v>0.001146999887219477</v>
       </c>
       <c r="T14">
-        <v>0.001508591190558203</v>
+        <v>0.001146999887219477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.995916999999999</v>
+        <v>9.798324333333333</v>
       </c>
       <c r="H15">
-        <v>20.987751</v>
+        <v>29.394973</v>
       </c>
       <c r="I15">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="J15">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>1702.641084830911</v>
+        <v>2384.680889214635</v>
       </c>
       <c r="R15">
-        <v>15323.76976347819</v>
+        <v>21462.12800293171</v>
       </c>
       <c r="S15">
-        <v>0.04515372341004017</v>
+        <v>0.07355429641094581</v>
       </c>
       <c r="T15">
-        <v>0.04515372341004017</v>
+        <v>0.07355429641094581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.995916999999999</v>
+        <v>9.798324333333333</v>
       </c>
       <c r="H16">
-        <v>20.987751</v>
+        <v>29.394973</v>
       </c>
       <c r="I16">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="J16">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>233.7947965798053</v>
+        <v>292.0034986359943</v>
       </c>
       <c r="R16">
-        <v>2104.153169218248</v>
+        <v>2628.031487723949</v>
       </c>
       <c r="S16">
-        <v>0.006200194317829187</v>
+        <v>0.009006702736976556</v>
       </c>
       <c r="T16">
-        <v>0.006200194317829187</v>
+        <v>0.009006702736976555</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.995916999999999</v>
+        <v>9.798324333333333</v>
       </c>
       <c r="H17">
-        <v>20.987751</v>
+        <v>29.394973</v>
       </c>
       <c r="I17">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="J17">
-        <v>0.0721470293876508</v>
+        <v>0.1098433994902357</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>727.1740705410182</v>
+        <v>847.3276618544215</v>
       </c>
       <c r="R17">
-        <v>6544.566634869164</v>
+        <v>7625.948956689795</v>
       </c>
       <c r="S17">
-        <v>0.01928452046922325</v>
+        <v>0.02613540045509386</v>
       </c>
       <c r="T17">
-        <v>0.01928452046922325</v>
+        <v>0.02613540045509386</v>
       </c>
     </row>
   </sheetData>
